--- a/result_table.xlsx
+++ b/result_table.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\crypto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D119898-0A55-4F7A-BB51-412E682AB1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Строки</t>
+  </si>
+  <si>
+    <t>Позиции</t>
+  </si>
+  <si>
+    <t>Среднее количество итераций</t>
+  </si>
+  <si>
+    <t>0a16213c 12d34346 34334543 65426787 04.06.2022 18.57.00 0011111002 3</t>
+  </si>
+  <si>
+    <t>[252, 256]</t>
+  </si>
+  <si>
+    <t>0a16211c 12d34312 54439543 65426963 04.12.2021 18.59.00 0017541002 5</t>
+  </si>
+  <si>
+    <t>[222, 226]</t>
+  </si>
+  <si>
+    <t>0a97213c 15d34346 17398243 65426787 04.07.2020 14.51.00 0044611002 7</t>
+  </si>
+  <si>
+    <t>[192, 196]</t>
+  </si>
+  <si>
+    <t>[162, 166]</t>
+  </si>
+  <si>
+    <t>[132, 136]</t>
+  </si>
+  <si>
+    <t>[102, 106]</t>
+  </si>
+  <si>
+    <t>[72, 76]</t>
+  </si>
+  <si>
+    <t>[42, 46]</t>
+  </si>
+  <si>
+    <t>[12, 16]</t>
+  </si>
+  <si>
+    <t>[0, 4]</t>
+  </si>
+  <si>
+    <t>Хэши</t>
+  </si>
+  <si>
+    <t>Количество итераций</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +111,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,195 +435,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Строки</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Позиции</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Среднее количество итераций</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0a16213c 12d34346 34334543 65426787 04.06.2022 18.57.00 0011111002 3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[252, 256]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0a16211c 12d34312 54439543 65426963 04.12.2021 18.59.00 0017541002 5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[222, 226]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0a97213c 15d34346 17398243 65426787 04.07.2020 14.51.00 0044611002 7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[192, 196]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[162, 166]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[132, 136]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[102, 106]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[72, 76]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[42, 46]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[12, 16]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0, 4]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_table.xlsx
+++ b/result_table.xlsx
@@ -1,97 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D119898-0A55-4F7A-BB51-412E682AB1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BEA968-CFE7-44A0-BDF7-20F958860F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Строки</t>
-  </si>
-  <si>
-    <t>Позиции</t>
-  </si>
-  <si>
-    <t>Среднее количество итераций</t>
-  </si>
-  <si>
-    <t>0a16213c 12d34346 34334543 65426787 04.06.2022 18.57.00 0011111002 3</t>
-  </si>
-  <si>
-    <t>[252, 256]</t>
-  </si>
-  <si>
-    <t>0a16211c 12d34312 54439543 65426963 04.12.2021 18.59.00 0017541002 5</t>
-  </si>
-  <si>
-    <t>[222, 226]</t>
-  </si>
-  <si>
-    <t>0a97213c 15d34346 17398243 65426787 04.07.2020 14.51.00 0044611002 7</t>
-  </si>
-  <si>
-    <t>[192, 196]</t>
-  </si>
-  <si>
-    <t>[162, 166]</t>
-  </si>
-  <si>
-    <t>[132, 136]</t>
-  </si>
-  <si>
-    <t>[102, 106]</t>
-  </si>
-  <si>
-    <t>[72, 76]</t>
-  </si>
-  <si>
-    <t>[42, 46]</t>
-  </si>
-  <si>
-    <t>[12, 16]</t>
-  </si>
-  <si>
-    <t>[0, 4]</t>
-  </si>
-  <si>
-    <t>Хэши</t>
-  </si>
-  <si>
-    <t>Количество итераций</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -110,30 +50,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -152,9 +74,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,9 +114,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,9 +148,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +200,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,133 +394,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>